--- a/DongAERP/Content/Report/ReportHSDetailt/ReportHSDetailtByPartnerLHCompareForOne.xlsx
+++ b/DongAERP/Content/Report/ReportHSDetailt/ReportHSDetailtByPartnerLHCompareForOne.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DongAERP\DongAERP\Content\Report\ReportHSDetailt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B41019-4C46-470B-85CD-3FAECEF0565A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D980E08B-FD75-4DBE-BEA4-EFD9A397B8C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FDADBC8A-6B6C-45FD-98E5-87326587A42E}"/>
   </bookViews>
@@ -35,19 +35,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>BÁO CÁO TỔNG HỢP - THEO TỪNG THỊ TRƯỜNG</t>
+    <t>BÁO CÁO CHI TIẾT - THEO ĐỐI TÁC - SO SÁNH</t>
   </si>
   <si>
-    <t>Doanh số chi quầy</t>
+    <t>Hồ sơ chi quầy</t>
   </si>
   <si>
-    <t>Doanh số chi nhà</t>
+    <t>Hồ sơ chi nhà</t>
   </si>
   <si>
-    <t>Tổng doanh số</t>
+    <t>Hồ sơ CK</t>
   </si>
   <si>
-    <t>Doanh số chi CK</t>
+    <t>Tổng</t>
   </si>
 </sst>
 </file>
@@ -480,7 +480,7 @@
   <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20:F20"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -673,10 +673,10 @@
         <v>2</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
